--- a/biology/Médecine/Voluntis/Voluntis.xlsx
+++ b/biology/Médecine/Voluntis/Voluntis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Voluntis est un fabricant de logiciels médicaux qui aident les patients à gérer leurs maladies chroniques. Ces logiciels s'inscrivent dans la démarche des thérapies digitales et se composent d'applications mobiles pour le patient et d'applications web correspondants pour les professionnels de santé[2]. 
-Voluntis développe notamment des dispositifs médicaux tels que Diabeo, logiciel médical web et mobile destiné aux diabétiques pour les aider à calculer les doses d’insuline à s’injecter au quotidien. Diabeo est développé conjointement avec le Centre d’étude et de recherche pour l’intensification du traitement du diabète et Sanofi[3].
-En 2015, Voluntis a annoncé un partenariat avec Roche France en vue de développer une première solution de suivi connecté pour aider les patientes atteintes d'un cancer du sein[4]. Voluntis a également signé un partenariat avec AstraZeneca pour tester un service digital d'accompagnement pour les femmes atteintes d'un cancer de l'ovaire[5]. 
+Voluntis est un fabricant de logiciels médicaux qui aident les patients à gérer leurs maladies chroniques. Ces logiciels s'inscrivent dans la démarche des thérapies digitales et se composent d'applications mobiles pour le patient et d'applications web correspondants pour les professionnels de santé. 
+Voluntis développe notamment des dispositifs médicaux tels que Diabeo, logiciel médical web et mobile destiné aux diabétiques pour les aider à calculer les doses d’insuline à s’injecter au quotidien. Diabeo est développé conjointement avec le Centre d’étude et de recherche pour l’intensification du traitement du diabète et Sanofi.
+En 2015, Voluntis a annoncé un partenariat avec Roche France en vue de développer une première solution de suivi connecté pour aider les patientes atteintes d'un cancer du sein. Voluntis a également signé un partenariat avec AstraZeneca pour tester un service digital d'accompagnement pour les femmes atteintes d'un cancer de l'ovaire. 
 Enfin, Voluntis est partenaire technique de l'Etude-NutriNet Santé.
 </t>
         </is>
